--- a/mcmaster_excel/Plastic_Narrow_Cheese_Head_Slotted_Screws.xlsx
+++ b/mcmaster_excel/Plastic_Narrow_Cheese_Head_Slotted_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,78 +434,84 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg., mm</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia., mm</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HeadHt., mm</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>TemperatureRange, °F</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Choose a Color</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr"/>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>M2 × 0.4 mm</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+          <t>Lg., mm</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Threading</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>HeadDia., mm</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>HeadHt., mm</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>TemperatureRange, °F</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Choose a Color</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Pkg.</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Nylon Plastic</t>
-        </is>
-      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -553,7 +559,11 @@
           <t>$10.44</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -606,7 +616,11 @@
           <t>10.53</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -659,7 +673,11 @@
           <t>10.66</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -712,7 +730,11 @@
           <t>10.70</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -722,18 +744,54 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-40° to 185°</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Off-White , Black</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>96295A705</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>10.36</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>M3 × 0.5 mm</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -743,7 +801,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -778,7 +836,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>96295A705</t>
+          <t>96295A706</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -786,7 +844,11 @@
           <t>10.36</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -796,7 +858,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -831,15 +893,19 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>96295A706</t>
+          <t>96295A707</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>10.36</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
+          <t>10.44</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -849,7 +915,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -884,15 +950,19 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>96295A707</t>
+          <t>96295A708</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>10.44</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
+          <t>10.53</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -902,7 +972,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -937,15 +1007,19 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>96295A708</t>
+          <t>96295A709</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>10.53</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
+          <t>10.66</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -955,7 +1029,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -990,15 +1064,19 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>96295A709</t>
+          <t>96295A711</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>10.66</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
+          <t>10.70</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -1008,7 +1086,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1043,15 +1121,19 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>96295A711</t>
+          <t>96295A712</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>10.70</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
+          <t>10.75</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -1061,7 +1143,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1096,15 +1178,19 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>96295A712</t>
+          <t>96295A713</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>10.75</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -1114,7 +1200,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1149,15 +1235,19 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>96295A713</t>
+          <t>96295A714</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>10.83</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr"/>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -1167,7 +1257,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1177,12 +1267,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1202,15 +1292,19 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>96295A714</t>
+          <t>96295A715</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>10.96</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
+          <t>11.22</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -1220,18 +1314,54 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>-40° to 185°</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Off-White , Black</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>96295A716</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>11.26</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
           <t>M4 × 0.7 mm</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -1241,7 +1371,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1276,15 +1406,19 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>96295A715</t>
+          <t>96295A717</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>11.22</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr"/>
+          <t>11.26</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -1294,7 +1428,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1329,15 +1463,19 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>96295A716</t>
+          <t>96295A718</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>11.26</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr"/>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -1347,7 +1485,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1382,15 +1520,19 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>96295A717</t>
+          <t>96295A719</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>11.26</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr"/>
+          <t>11.39</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -1400,7 +1542,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1435,15 +1577,19 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>96295A718</t>
+          <t>96295A721</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>11.35</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr"/>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -1453,7 +1599,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1488,15 +1634,19 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>96295A719</t>
+          <t>96295A722</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>11.39</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr"/>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -1506,7 +1656,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1541,15 +1691,19 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>96295A721</t>
+          <t>96295A723</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>11.48</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr"/>
+          <t>11.83</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -1559,7 +1713,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1594,15 +1748,19 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>96295A722</t>
+          <t>96295A724</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>11.48</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr"/>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -1612,7 +1770,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1622,12 +1780,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1647,15 +1805,19 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>96295A723</t>
+          <t>96295A725</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>11.83</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr"/>
+          <t>12.13</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -1665,7 +1827,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1675,12 +1837,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1700,15 +1862,19 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>96295A724</t>
+          <t>96295A726</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>11.96</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr"/>
+          <t>12.22</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -1718,18 +1884,54 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>-40° to 185°</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Off-White , Black</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>96295A727</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>12.26</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
           <t>M5 × 0.8 mm</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -1739,7 +1941,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1774,15 +1976,19 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>96295A725</t>
+          <t>96295A728</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>12.13</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr"/>
+          <t>12.35</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -1792,7 +1998,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1827,15 +2033,19 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>96295A726</t>
+          <t>96295A729</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>12.22</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr"/>
+          <t>12.43</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -1845,7 +2055,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1880,15 +2090,19 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>96295A727</t>
+          <t>96295A731</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>12.26</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr"/>
+          <t>12.52</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -1898,7 +2112,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1933,15 +2147,19 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>96295A728</t>
+          <t>96295A732</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>12.35</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr"/>
+          <t>12.69</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -1951,7 +2169,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1986,15 +2204,19 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>96295A729</t>
+          <t>96295A733</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>12.43</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr"/>
+          <t>12.82</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -2004,7 +2226,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2014,12 +2236,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2039,15 +2261,19 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>96295A731</t>
+          <t>96295A734</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>12.52</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr"/>
+          <t>13.95</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -2057,7 +2283,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2067,12 +2293,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2092,7 +2318,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>96295A732</t>
+          <t>96295A735</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2100,7 +2326,11 @@
           <t>12.69</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -2110,7 +2340,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2120,12 +2350,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2145,15 +2375,19 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>96295A733</t>
+          <t>96295A736</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>12.82</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr"/>
+          <t>13.99</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -2163,18 +2397,54 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>-40° to 185°</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Off-White , Black</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>96295A737</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>14.08</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
           <t>M6 × 1 mm</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -2184,7 +2454,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2219,15 +2489,19 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>96295A734</t>
+          <t>96295A738</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>13.95</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr"/>
+          <t>14.21</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -2237,7 +2511,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2272,15 +2546,19 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>96295A735</t>
+          <t>96295A739</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>12.69</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr"/>
+          <t>14.30</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -2290,7 +2568,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2325,15 +2603,19 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>96295A736</t>
+          <t>96295A741</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>13.99</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr"/>
+          <t>14.47</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -2343,7 +2625,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2378,15 +2660,19 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>96295A737</t>
+          <t>96295A742</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>14.08</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr"/>
+          <t>14.64</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -2396,7 +2682,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2431,15 +2717,19 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>96295A738</t>
+          <t>96295A743</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>14.21</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr"/>
+          <t>14.77</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -2449,7 +2739,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2484,15 +2774,19 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>96295A739</t>
+          <t>96295A744</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>14.30</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr"/>
+          <t>14.86</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -2502,7 +2796,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2537,15 +2831,19 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>96295A741</t>
+          <t>96295A745</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>14.47</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr"/>
+          <t>14.90</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -2555,7 +2853,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2565,12 +2863,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2585,20 +2883,24 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>96295A742</t>
+          <t>96295A746</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>14.64</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr"/>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -2608,7 +2910,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2618,12 +2920,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2638,20 +2940,24 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>96295A743</t>
+          <t>96295A747</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>14.77</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr"/>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -2661,7 +2967,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2671,12 +2977,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2691,20 +2997,24 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>96295A744</t>
+          <t>96295A748</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>14.86</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr"/>
+          <t>10.89</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -2714,7 +3024,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2724,12 +3034,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2744,20 +3054,24 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>96295A745</t>
+          <t>96295A749</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>14.90</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr"/>
+          <t>10.91</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -2767,284 +3081,55 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>-40° to 185°</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Off-White , Black</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>96295A751</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>11.47</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
           <t>M8 × 1.25 mm</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
-        <is>
-          <t>Nylon Plastic</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>13.00</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>-40° to 185°</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Off-White , Black</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>96295A746</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>10.82</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>Nylon Plastic</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>13.00</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>-40° to 185°</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Off-White , Black</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>96295A747</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>10.84</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>Nylon Plastic</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>13.00</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>-40° to 185°</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Off-White , Black</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>96295A748</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>10.89</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>Nylon Plastic</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>13.00</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>-40° to 185°</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Off-White , Black</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>96295A749</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>10.91</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>Nylon Plastic</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>13.00</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>-40° to 185°</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Off-White , Black</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>96295A751</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>11.47</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
         </is>
